--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201112_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/03.BaoGiaBH/BG201112_TechGlobal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -168,13 +168,16 @@
   </si>
   <si>
     <t>baohanh@vn-et.com</t>
+  </si>
+  <si>
+    <t>Thiết bị note đỏ báo giá khác không sửa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +274,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -621,7 +637,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -699,6 +715,90 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -720,82 +820,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1183,96 +1226,96 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="49" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1280,10 +1323,10 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="25"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1294,13 +1337,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1308,10 +1351,10 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="25"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1323,10 +1366,10 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -1376,7 +1419,7 @@
       <c r="B13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="33">
         <v>868183034547138</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -1394,25 +1437,25 @@
       <c r="H13" s="29">
         <v>1</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="35">
         <v>35000</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="35">
         <v>35000</v>
       </c>
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
+      <c r="A14" s="69">
         <v>2</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="68">
         <v>868004026316748</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -1427,19 +1470,19 @@
       <c r="H14" s="29">
         <v>1</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="35">
         <v>10000</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="35">
         <v>10000</v>
       </c>
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="32" t="s">
         <v>34</v>
       </c>
@@ -1452,76 +1495,74 @@
       <c r="H15" s="29">
         <v>1</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="35">
         <v>10000</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="35">
         <v>10000</v>
       </c>
       <c r="AA15" s="15"/>
     </row>
     <row r="16" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="38">
         <v>3</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="39">
         <v>861693037597069</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="38">
         <v>1</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="41">
         <v>310000</v>
       </c>
-      <c r="J16" s="63">
-        <v>310000</v>
-      </c>
+      <c r="J16" s="41"/>
       <c r="AA16" s="15"/>
     </row>
     <row r="17" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="71">
         <v>4</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="72">
         <v>867330023798922</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="71">
         <v>1</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="74">
         <v>360000</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="74">
         <v>360000</v>
       </c>
       <c r="AA17" s="15"/>
@@ -1533,7 +1574,7 @@
       <c r="B18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="33">
         <v>868004027153447</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -1551,10 +1592,10 @@
       <c r="H18" s="29">
         <v>1</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="35">
         <v>120000</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="35">
         <v>120000</v>
       </c>
       <c r="AA18" s="15"/>
@@ -1566,7 +1607,7 @@
       <c r="B19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="29" t="s">
@@ -1584,29 +1625,29 @@
       <c r="H19" s="29">
         <v>1</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="36">
         <v>100000</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="36">
         <v>100000</v>
       </c>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="65">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="37">
         <f>SUM(J13:J19)</f>
-        <v>945000</v>
+        <v>635000</v>
       </c>
       <c r="AA20" s="15"/>
     </row>
@@ -1625,10 +1666,12 @@
     </row>
     <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="B22" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -1637,31 +1680,31 @@
       <c r="AA22" s="15"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="24"/>
       <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -1688,20 +1731,20 @@
       <c r="AA28" s="15"/>
     </row>
     <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
       <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1772,29 +1815,30 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:I20"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="A29:E29"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
